--- a/asistencias.xlsx
+++ b/asistencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94FB8C-9749-428B-A6BA-443CE288DEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A40CF2-56F7-426D-B664-390C05C927C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="-13665" windowWidth="23385" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="-14100" windowWidth="23385" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="63">
   <si>
     <t>Nombre</t>
   </si>
@@ -213,13 +213,13 @@
     <t>Fam. Aari Minga, Laura Minga</t>
   </si>
   <si>
-    <t>Fam Astete Cahuapaza, Honathan</t>
-  </si>
-  <si>
     <t>Fam Astete Cahuapaza, Merly</t>
   </si>
   <si>
     <t>recuperacion</t>
+  </si>
+  <si>
+    <t>Fam Astete Cahuapaza, Jonathan</t>
   </si>
 </sst>
 </file>
@@ -376,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}" name="Tabla1" displayName="Tabla1" ref="A1:D57" totalsRowShown="0">
-  <autoFilter ref="A1:D57" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}" name="Tabla1" displayName="Tabla1" ref="A1:D113" totalsRowShown="0">
+  <autoFilter ref="A1:D113" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9A1610EB-D7B0-475C-A012-586BD3CBBA39}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{E32C4195-A605-457E-AD1E-294CD60D7E46}" name="Ciclo" dataDxfId="2"/>
@@ -676,10 +676,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -1476,15 +1476,799 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="5">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="5">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="5">
+        <v>1</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="5">
+        <v>1</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="5">
+        <v>1</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="5">
+        <v>1</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="5">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/asistencias.xlsx
+++ b/asistencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A40CF2-56F7-426D-B664-390C05C927C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8EFEF-4ECE-4AA9-9B78-4B1F80228EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="-14100" windowWidth="23385" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="63">
   <si>
     <t>Nombre</t>
   </si>
@@ -376,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}" name="Tabla1" displayName="Tabla1" ref="A1:D113" totalsRowShown="0">
-  <autoFilter ref="A1:D113" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}" name="Tabla1" displayName="Tabla1" ref="A1:D169" totalsRowShown="0">
+  <autoFilter ref="A1:D169" xr:uid="{B14A4614-AC52-4881-A665-D85958DAAF2F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9A1610EB-D7B0-475C-A012-586BD3CBBA39}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{E32C4195-A605-457E-AD1E-294CD60D7E46}" name="Ciclo" dataDxfId="2"/>
@@ -676,10 +676,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2272,6 +2272,790 @@
         <v>5</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5">
+        <v>3</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5">
+        <v>3</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5">
+        <v>3</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
+      <c r="C117" s="5">
+        <v>3</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="5">
+        <v>1</v>
+      </c>
+      <c r="C118" s="5">
+        <v>3</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="5">
+        <v>1</v>
+      </c>
+      <c r="C119" s="5">
+        <v>3</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="5">
+        <v>1</v>
+      </c>
+      <c r="C120" s="5">
+        <v>3</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1</v>
+      </c>
+      <c r="C121" s="5">
+        <v>3</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="5">
+        <v>1</v>
+      </c>
+      <c r="C122" s="5">
+        <v>3</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="5">
+        <v>1</v>
+      </c>
+      <c r="C123" s="5">
+        <v>3</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1</v>
+      </c>
+      <c r="C124" s="5">
+        <v>3</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1</v>
+      </c>
+      <c r="C125" s="5">
+        <v>3</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="5">
+        <v>1</v>
+      </c>
+      <c r="C126" s="5">
+        <v>3</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="5">
+        <v>1</v>
+      </c>
+      <c r="C127" s="5">
+        <v>3</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5">
+        <v>3</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+      <c r="C129" s="5">
+        <v>3</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+      <c r="C130" s="5">
+        <v>3</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="5">
+        <v>1</v>
+      </c>
+      <c r="C131" s="5">
+        <v>3</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1</v>
+      </c>
+      <c r="C132" s="5">
+        <v>3</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="5">
+        <v>1</v>
+      </c>
+      <c r="C133" s="5">
+        <v>3</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" s="5">
+        <v>1</v>
+      </c>
+      <c r="C134" s="5">
+        <v>3</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1</v>
+      </c>
+      <c r="C135" s="5">
+        <v>3</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="5">
+        <v>1</v>
+      </c>
+      <c r="C136" s="5">
+        <v>3</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137" s="5">
+        <v>1</v>
+      </c>
+      <c r="C137" s="5">
+        <v>3</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="5">
+        <v>1</v>
+      </c>
+      <c r="C138" s="5">
+        <v>3</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="5">
+        <v>1</v>
+      </c>
+      <c r="C139" s="5">
+        <v>3</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="5">
+        <v>1</v>
+      </c>
+      <c r="C140" s="5">
+        <v>3</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="5">
+        <v>1</v>
+      </c>
+      <c r="C141" s="5">
+        <v>3</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1</v>
+      </c>
+      <c r="C142" s="5">
+        <v>3</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1</v>
+      </c>
+      <c r="C143" s="5">
+        <v>3</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>36</v>
+      </c>
+      <c r="B144" s="5">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5">
+        <v>3</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="5">
+        <v>1</v>
+      </c>
+      <c r="C145" s="5">
+        <v>3</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>38</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1</v>
+      </c>
+      <c r="C146" s="5">
+        <v>3</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1</v>
+      </c>
+      <c r="C147" s="5">
+        <v>3</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1</v>
+      </c>
+      <c r="C148" s="5">
+        <v>3</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
+      <c r="C149" s="5">
+        <v>3</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>42</v>
+      </c>
+      <c r="B150" s="5">
+        <v>1</v>
+      </c>
+      <c r="C150" s="5">
+        <v>3</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1</v>
+      </c>
+      <c r="C151" s="5">
+        <v>3</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="5">
+        <v>1</v>
+      </c>
+      <c r="C152" s="5">
+        <v>3</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>45</v>
+      </c>
+      <c r="B153" s="5">
+        <v>1</v>
+      </c>
+      <c r="C153" s="5">
+        <v>3</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>46</v>
+      </c>
+      <c r="B154" s="5">
+        <v>1</v>
+      </c>
+      <c r="C154" s="5">
+        <v>3</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155" s="5">
+        <v>1</v>
+      </c>
+      <c r="C155" s="5">
+        <v>3</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+      <c r="C156" s="5">
+        <v>3</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1</v>
+      </c>
+      <c r="C157" s="5">
+        <v>3</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1</v>
+      </c>
+      <c r="C158" s="5">
+        <v>3</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>51</v>
+      </c>
+      <c r="B159" s="5">
+        <v>1</v>
+      </c>
+      <c r="C159" s="5">
+        <v>3</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="5">
+        <v>1</v>
+      </c>
+      <c r="C160" s="5">
+        <v>3</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1</v>
+      </c>
+      <c r="C161" s="5">
+        <v>3</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="5">
+        <v>1</v>
+      </c>
+      <c r="C162" s="5">
+        <v>3</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1</v>
+      </c>
+      <c r="C163" s="5">
+        <v>3</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1</v>
+      </c>
+      <c r="C164" s="5">
+        <v>3</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="5">
+        <v>1</v>
+      </c>
+      <c r="C165" s="5">
+        <v>3</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="5">
+        <v>1</v>
+      </c>
+      <c r="C166" s="5">
+        <v>3</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="5">
+        <v>1</v>
+      </c>
+      <c r="C167" s="5">
+        <v>3</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>62</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1</v>
+      </c>
+      <c r="C168" s="5">
+        <v>3</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1</v>
+      </c>
+      <c r="C169" s="5">
+        <v>3</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
